--- a/lowe/edd/data/ELDORHWS.xlsx
+++ b/lowe/edd/data/ELDORHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1364,14 +1364,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH52"/>
+  <dimension ref="A1:JI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1381,12 +1381,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,14 +1396,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1411,12 +1411,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2231,11 +2231,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3036,10 +3039,13 @@
         <v>91600</v>
       </c>
       <c r="JH9" s="11">
-        <v>91300</v>
+        <v>91400</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>91500</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3842,8 +3848,11 @@
       <c r="JH10" s="11">
         <v>86200</v>
       </c>
+      <c r="JI10" s="11">
+        <v>87000</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4646,8 +4655,11 @@
       <c r="JH11" s="11">
         <v>5100</v>
       </c>
+      <c r="JI11" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5450,8 +5462,11 @@
       <c r="JH12" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6231,7 +6246,7 @@
         <v>54400</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7011,7 +7026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7791,7 +7806,7 @@
         <v>54200</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>

--- a/lowe/edd/data/ELDORHWS.xlsx
+++ b/lowe/edd/data/ELDORHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI52"/>
+  <dimension ref="A1:JJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,12 +1381,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,14 +1396,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1411,12 +1411,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2234,11 +2234,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3042,10 +3045,13 @@
         <v>91400</v>
       </c>
       <c r="JI9" s="11">
-        <v>91500</v>
+        <v>91600</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>92000</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3849,10 +3855,13 @@
         <v>86200</v>
       </c>
       <c r="JI10" s="11">
-        <v>87000</v>
+        <v>87100</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>87700</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4658,8 +4667,11 @@
       <c r="JI11" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5465,8 +5477,11 @@
       <c r="JI12" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>4.7E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6246,7 +6261,7 @@
         <v>54400</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7026,7 +7041,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7806,7 +7821,7 @@
         <v>54200</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>

--- a/lowe/edd/data/ELDORHWS.xlsx
+++ b/lowe/edd/data/ELDORHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ52"/>
+  <dimension ref="A1:JL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,12 +1381,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,14 +1396,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1411,12 +1411,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2237,11 +2237,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3048,10 +3054,16 @@
         <v>91600</v>
       </c>
       <c r="JJ9" s="11">
-        <v>92000</v>
+        <v>91900</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>92200</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>91700</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3858,10 +3870,16 @@
         <v>87100</v>
       </c>
       <c r="JJ10" s="11">
-        <v>87700</v>
+        <v>87600</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>88400</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>88100</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4670,8 +4688,14 @@
       <c r="JJ11" s="11">
         <v>4300</v>
       </c>
+      <c r="JK11" s="11">
+        <v>3800</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5480,8 +5504,14 @@
       <c r="JJ12" s="12">
         <v>4.7E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>3.9E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6261,7 +6291,7 @@
         <v>54400</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7041,7 +7071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7821,7 +7851,7 @@
         <v>54200</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
